--- a/biology/Botanique/Marquise_de_Sinéty/Marquise_de_Sinéty.xlsx
+++ b/biology/Botanique/Marquise_de_Sinéty/Marquise_de_Sinéty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marquise_de_Sin%C3%A9ty</t>
+          <t>Marquise_de_Sinéty</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Marquise de Sinéty' est un cultivar de rosier obtenu en 1906 par le fameux rosiériste lyonnais Joseph Pernet-Ducher[1]. Il rend hommage à une amatrice de roses, propriétaire du château de Courboyer dans l'Orne, et dame patronnesse de la Société française des rosiéristes[2]. 
+'Marquise de Sinéty' est un cultivar de rosier obtenu en 1906 par le fameux rosiériste lyonnais Joseph Pernet-Ducher. Il rend hommage à une amatrice de roses, propriétaire du château de Courboyer dans l'Orne, et dame patronnesse de la Société française des rosiéristes. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marquise_de_Sin%C3%A9ty</t>
+          <t>Marquise_de_Sinéty</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Pernet-Ducher a donné naissance à ses fameuses roses rangées dans la catégorie des Pernetaniae, aujourd'hui classée dans les hybrides de thé, et il s'est lancé dans l'obtention de roses jaunes fort prisées à l'époque. 'Marquise de Sinéty' fait partie de ces roses au coloris très subtil, mélange de jaune et d'orangé et de chamois rosé. Les fleurs sont grandes et pleines (26-40 pétales) en forme de coupe[3]. La floraison est remontante[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Pernet-Ducher a donné naissance à ses fameuses roses rangées dans la catégorie des Pernetaniae, aujourd'hui classée dans les hybrides de thé, et il s'est lancé dans l'obtention de roses jaunes fort prisées à l'époque. 'Marquise de Sinéty' fait partie de ces roses au coloris très subtil, mélange de jaune et d'orangé et de chamois rosé. Les fleurs sont grandes et pleines (26-40 pétales) en forme de coupe. La floraison est remontante.
 Sa zone de rusticité est de 6b à 9b ; il est donc résistant aux hivers froids. 
 On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marquise_de_Sin%C3%A9ty</t>
+          <t>Marquise_de_Sinéty</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">'Marquise de Sinéty' a donné naissance, par croisement avec 'Lady Hillingdon' (Lowe &amp; Shawyer, 1910), à l'hybride de thé 'Mary Merryweather' (Merryweather, 1925).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marquise_de_Sin%C3%A9ty</t>
+          <t>Marquise_de_Sinéty</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médaille d'or de la roseraie de Bagatelle, 1907[5]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médaille d'or de la roseraie de Bagatelle, 1907</t>
         </is>
       </c>
     </row>
